--- a/src/test/resources/Lennox.xlsx
+++ b/src/test/resources/Lennox.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rahul\eclipse-workspace\Lennox\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2A20141-626D-4AAA-BADF-05039260330F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C35AC395-86D2-40C8-B585-B50BDAA04F4C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>First Name</t>
   </si>
@@ -67,6 +67,30 @@
   </si>
   <si>
     <t>Test13</t>
+  </si>
+  <si>
+    <t>Add Document</t>
+  </si>
+  <si>
+    <t>Add Image</t>
+  </si>
+  <si>
+    <t>\\src\\test\\resources\\Lennox.docx</t>
+  </si>
+  <si>
+    <t>\\src\\test\\resources\\lennox.png</t>
+  </si>
+  <si>
+    <t>\\src\\test\\resources\\Lennox2.docx</t>
+  </si>
+  <si>
+    <t>\\src\\test\\resources\\lennox2.png</t>
+  </si>
+  <si>
+    <t>\\src\\test\\resources\\Lennox3.docx</t>
+  </si>
+  <si>
+    <t>\\src\\test\\resources\\lennox3.png</t>
   </si>
 </sst>
 </file>
@@ -417,10 +441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -428,9 +452,11 @@
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -446,8 +472,14 @@
       <c r="E1" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="F1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -463,8 +495,14 @@
       <c r="E2" s="4">
         <v>44318</v>
       </c>
+      <c r="F2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -480,8 +518,14 @@
       <c r="E3" s="4">
         <v>44379</v>
       </c>
+      <c r="F3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -496,6 +540,12 @@
       </c>
       <c r="E4" s="4">
         <v>44328</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -503,8 +553,14 @@
     <hyperlink ref="D2" r:id="rId1" xr:uid="{C99048FC-157B-440A-A584-934FF004FF54}"/>
     <hyperlink ref="D3" r:id="rId2" xr:uid="{C50A517E-E0FC-4A49-B492-5CDFC53C44B1}"/>
     <hyperlink ref="D4" r:id="rId3" xr:uid="{18CCA2C9-583B-4E26-884E-D24C3317A3CA}"/>
+    <hyperlink ref="F2" r:id="rId4" xr:uid="{60A9E975-C396-42DC-A133-8EF18EAD2A1A}"/>
+    <hyperlink ref="G2" r:id="rId5" xr:uid="{C5960D7A-AE22-49AA-96DB-8DD0DDACAC10}"/>
+    <hyperlink ref="F3" r:id="rId6" xr:uid="{CF41C005-D59F-4A17-9FE9-023252AB80FF}"/>
+    <hyperlink ref="F4" r:id="rId7" xr:uid="{35F12D08-124C-4C61-859C-F42BACCA0051}"/>
+    <hyperlink ref="G3" r:id="rId8" xr:uid="{B470F616-A792-4149-82EF-39A96B417DC6}"/>
+    <hyperlink ref="G4" r:id="rId9" xr:uid="{D8BF042F-3D23-4FCF-BCCA-D38F7066BAB0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>
 </worksheet>
 </file>